--- a/Assigment.xlsx
+++ b/Assigment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -45,6 +45,20 @@
   </si>
   <si>
     <t>deadline thứ 4 27/3/2018</t>
+  </si>
+  <si>
+    <t>Tuần 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deadline </t>
+  </si>
+  <si>
+    <t>1. Vẽ class diagram QL tour
+2. Desgin DB</t>
+  </si>
+  <si>
+    <t>1. Vẽ class diagram QL user
+2. Design DB</t>
   </si>
 </sst>
 </file>
@@ -392,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C6"/>
+  <dimension ref="A3:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,9 +417,10 @@
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="2" max="2" width="23.140625" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -415,8 +430,11 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -426,8 +444,11 @@
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -435,10 +456,16 @@
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Assigment.xlsx
+++ b/Assigment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -59,6 +59,19 @@
   <si>
     <t>1. Vẽ class diagram QL user
 2. Design DB</t>
+  </si>
+  <si>
+    <t>Deadline</t>
+  </si>
+  <si>
+    <t>Tuần 4</t>
+  </si>
+  <si>
+    <t>1. Design DB &amp; tạo dữ liệu mẫu</t>
+  </si>
+  <si>
+    <t>1. Tìm template.
+2. Refactor trang index,about,…</t>
   </si>
 </sst>
 </file>
@@ -69,17 +82,29 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -94,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -102,6 +127,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,35 +433,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D6"/>
+  <dimension ref="A3:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.375" customWidth="1"/>
+    <col min="2" max="2" width="23.125" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="18.25" customWidth="1"/>
+    <col min="5" max="5" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -447,8 +478,11 @@
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -459,8 +493,14 @@
       <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>

--- a/Assigment.xlsx
+++ b/Assigment.xlsx
@@ -124,11 +124,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,7 +436,7 @@
   <dimension ref="A3:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -449,19 +449,19 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -469,7 +469,7 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -486,7 +486,7 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
@@ -498,7 +498,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="s">

--- a/Assigment.xlsx
+++ b/Assigment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -67,18 +67,34 @@
     <t>Tuần 4</t>
   </si>
   <si>
-    <t>1. Design DB &amp; tạo dữ liệu mẫu</t>
-  </si>
-  <si>
     <t>1. Tìm template.
 2. Refactor trang index,about,…</t>
+  </si>
+  <si>
+    <t>Tuần 5</t>
+  </si>
+  <si>
+    <t>1. Design DB &amp; tạo dữ liệu mẫu.
+2. Refactor các trang của admin</t>
+  </si>
+  <si>
+    <t>1. Chức năng đăng ký.
+2.  View và chỉnh sửa info cho người dùng</t>
+  </si>
+  <si>
+    <t>1. Chức năng login
+2. Chức năng Change pass.
+3. Chức năng fogot pass.</t>
+  </si>
+  <si>
+    <t>deadline thứ 6 19/4/2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,8 +102,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -106,6 +129,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -119,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -129,6 +158,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E6"/>
+  <dimension ref="A3:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -446,9 +476,10 @@
     <col min="3" max="3" width="12.625" customWidth="1"/>
     <col min="4" max="4" width="18.25" customWidth="1"/>
     <col min="5" max="5" width="23.375" customWidth="1"/>
+    <col min="6" max="6" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -464,8 +495,11 @@
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -478,11 +512,14 @@
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
-        <v>15</v>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -494,10 +531,13 @@
         <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -506,6 +546,9 @@
       </c>
       <c r="D6" t="s">
         <v>10</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -513,5 +556,6 @@
     <mergeCell ref="B4:B5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assigment.xlsx
+++ b/Assigment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -88,6 +88,60 @@
   </si>
   <si>
     <t>deadline thứ 6 19/4/2019</t>
+  </si>
+  <si>
+    <t>Tuần 6:</t>
+  </si>
+  <si>
+    <t>1. Chức năng đăng tin (video) để promotion về địa điểm du lịch của Tour Guide</t>
+  </si>
+  <si>
+    <t>2. Quản lý tin đăng (Tour Guide) (Manage seft tour)</t>
+  </si>
+  <si>
+    <t>Tuần 7 :</t>
+  </si>
+  <si>
+    <t>1. Chức năng View Tour + Search Tour.</t>
+  </si>
+  <si>
+    <t>2. Chức năng Chat</t>
+  </si>
+  <si>
+    <t>3. Chức năng Book Tour</t>
+  </si>
+  <si>
+    <t>4. Chức năng FeedBack</t>
+  </si>
+  <si>
+    <t>Tuần 6</t>
+  </si>
+  <si>
+    <t>Tuần 7</t>
+  </si>
+  <si>
+    <t>Tuần 8 :</t>
+  </si>
+  <si>
+    <t>1. QL User</t>
+  </si>
+  <si>
+    <t>2. QL Tour</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Quản lý tin đăng (Tour Guide) (Manage seft tour).
+</t>
+  </si>
+  <si>
+    <t>1. Chức năng View Tour + Search Tour.
+4. Chức năng FeedBack.</t>
+  </si>
+  <si>
+    <t>2. Chức năng Chat.
+3. Chức năng Book Tour.</t>
   </si>
 </sst>
 </file>
@@ -131,12 +185,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -144,21 +198,113 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F6"/>
+  <dimension ref="A3:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -477,9 +623,11 @@
     <col min="4" max="4" width="18.25" customWidth="1"/>
     <col min="5" max="5" width="23.375" customWidth="1"/>
     <col min="6" max="6" width="18.625" customWidth="1"/>
+    <col min="7" max="7" width="18.125" customWidth="1"/>
+    <col min="8" max="8" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -498,12 +646,18 @@
       <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -518,12 +672,18 @@
       <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
@@ -536,8 +696,14 @@
       <c r="F5" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -547,8 +713,82 @@
       <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="13" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="8"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="10"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Assigment.xlsx
+++ b/Assigment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Name</t>
   </si>
@@ -102,16 +102,7 @@
     <t>Tuần 7 :</t>
   </si>
   <si>
-    <t>1. Chức năng View Tour + Search Tour.</t>
-  </si>
-  <si>
     <t>2. Chức năng Chat</t>
-  </si>
-  <si>
-    <t>3. Chức năng Book Tour</t>
-  </si>
-  <si>
-    <t>4. Chức năng FeedBack</t>
   </si>
   <si>
     <t>Tuần 6</t>
@@ -142,6 +133,18 @@
   <si>
     <t>2. Chức năng Chat.
 3. Chức năng Book Tour.</t>
+  </si>
+  <si>
+    <t>1. Chức năng View Tour + Search Tour. (Tourist)</t>
+  </si>
+  <si>
+    <t>3. Chức năng Book Tour (Tourist)</t>
+  </si>
+  <si>
+    <t>list tour, view detail tour, add tour, edit tour, delete tour.</t>
+  </si>
+  <si>
+    <t>4. Chức năng FeedBack(Tourist) : khách hàng đánh giá về chất lượng tour du lịch</t>
   </si>
 </sst>
 </file>
@@ -299,11 +302,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -612,7 +615,7 @@
   <dimension ref="A3:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -647,17 +650,17 @@
         <v>16</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -675,15 +678,15 @@
       <c r="G4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="15" t="s">
-        <v>37</v>
+      <c r="H4" s="14" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="14"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
@@ -697,10 +700,10 @@
         <v>19</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -739,7 +742,9 @@
         <v>23</v>
       </c>
       <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
+      <c r="C12" s="12" t="s">
+        <v>37</v>
+      </c>
       <c r="D12" s="10"/>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -751,44 +756,44 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B16" s="8"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="8"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B18" s="8"/>
     </row>
     <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B19" s="10"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
